--- a/Shading Trees/my_graphs/Production Change.xlsx
+++ b/Shading Trees/my_graphs/Production Change.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-5779.85412708018</v>
+        <v>6.455375881399959</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-55.81962006769027</v>
+        <v>1.196906833385583</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>-31.34323389886413</v>
+        <v>72.4462302622851</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.643212721337477</v>
+        <v>0.001229508310643723</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-3.660130813899741</v>
+        <v>6800.643190208233</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>-99.14404367108364</v>
+        <v>226.5778915853007</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>-149.1139824443962</v>
+        <v>12.60685754637234</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>-61.6679705423121</v>
+        <v>0.04282780547509901</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-213.5862129877787</v>
+        <v>93.65993206109852</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>-23.26261332727154</v>
+        <v>0.697194295207737</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>-349.6775078261271</v>
+        <v>24.73983152490109</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -580,7 +580,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>-5576.420272804098</v>
+        <v>2.546509435167536</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>276.9754545717151</v>
+        <v>0.01745493462658487</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>-140.5845235695597</v>
+        <v>5440.08515199367</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -613,7 +613,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1.678463245342755</v>
+        <v>0.0003656931967270793</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>-133.3901898420881</v>
+        <v>66.99194990471005</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>-19.77592776261736</v>
+        <v>45.19472729469999</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>-28.60821518021112</v>
+        <v>2.418684602991561</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>-17.4553132241499</v>
+        <v>0.0121187881750302</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>-23.26261332727154</v>
+        <v>0.6971942952222889</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>-415.9486269224435</v>
+        <v>30.02396702859551</v>
       </c>
       <c r="C22">
         <v>0</v>
